--- a/data/trans_camb/P18_6_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P18_6_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,19</t>
+          <t>-4,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>84,47</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-10,18</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>68,68</t>
+          <t>-5,24</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-3,85</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>75,64</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-4,46</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>-1,68</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>-3,53</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,27; 12,3</t>
+          <t>-19,16; 19,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 8,12</t>
+          <t>-18,62; 13,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 0,67</t>
+          <t>-26,45; 4,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>75,33; 89,25</t>
+          <t>-25,35; 9,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-11,6; -0,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 2,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,88; 5,28</t>
+          <t>-19,92; -1,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>62,1; 74,11</t>
+          <t>-14,89; 2,16</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 1,65</t>
+          <t>-11,63; 4,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 2,64</t>
+          <t>-11,84; 8,21</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 1,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>70,33; 79,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-14,24; 6,6</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-12,41; 5,53</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-13,86; 2,16</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-11,49; 6,78</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,41%</t>
+          <t>27,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-47,54%</t>
+          <t>-48,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>958,53%</t>
+          <t>-1,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-41,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-3,07%</t>
+          <t>-53,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>435,29%</t>
+          <t>-27,31%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-30,14%</t>
+          <t>-15,57%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-11,75%</t>
+          <t>-4,3%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-16,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>592,01%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-30,56%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-11,55%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>-24,21%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>-0,68%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-75,3; 225,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-58,28; 139,15</t>
+          <t>-78,8; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-81,6; 18,52</t>
+          <t>-93,02; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>417,03; 1762,68</t>
+          <t>-87,77; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-62,5; -3,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-43,05; 16,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-32,52; 41,54</t>
+          <t>-75,11; -7,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>314,44; 600,01</t>
+          <t>-56,77; 16,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-59,81; 17,84</t>
+          <t>-44,89; 30,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-40,39; 24,25</t>
+          <t>-46,3; 60,03</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-45,08; 12,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>430,81; 778,39</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-70,74; 83,12</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-55,64; 59,78</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-60,81; 21,52</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-48,67; 66,73</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>85,68</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,3</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,84</t>
+          <t>-4,65</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>67,93</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-2,67</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>77,22</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-3,38</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-2,65</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-1,43</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,64</t>
+          <t>-5,55; 1,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 0,14</t>
+          <t>-5,5; 1,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 5,52</t>
+          <t>-2,38; 5,81</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>82,17; 88,61</t>
+          <t>-0,56; 8,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,52; -1,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 0,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,31; 0,15</t>
+          <t>-9,76; 1,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>63,83; 71,97</t>
+          <t>-8,44; 1,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,14; -1,5</t>
+          <t>-8,65; 1,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-4,97; -0,43</t>
+          <t>-3,47; 7,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 1,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>74,52; 79,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-7,06; 0,13</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 0,52</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 1,9</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-0,95; 6,51</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-28,57%</t>
+          <t>-29,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-30,84%</t>
+          <t>-25,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>24,74%</t>
+          <t>24,2%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1300,76%</t>
+          <t>58,05%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-33,52%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-19,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-24,27%</t>
+          <t>-28,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>429,57%</t>
+          <t>-20,3%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-32,17%</t>
+          <t>-23,58%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-23,88%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-10,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>689,42%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-29,21%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-22,87%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-12,36%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>22,46%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,61; 12,59</t>
+          <t>-64,32; 43,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-55,91; 2,83</t>
+          <t>-59,96; 38,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,62; 97,05</t>
+          <t>-27,77; 138,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>939,38; 1721,78</t>
+          <t>-10,44; 175,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,38; -9,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-38,29; 6,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-42,65; 0,99</t>
+          <t>-52,51; 11,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>345,05; 527,07</t>
+          <t>-42,84; 12,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-48,53; -13,98</t>
+          <t>-44,6; 12,04</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-39,62; -4,16</t>
+          <t>-18,89; 57,71</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-29,96; 12,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>579,26; 822,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-52,7; 1,56</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-42,06; 5,79</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-34,97; 19,63</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-7,59; 67,65</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,32</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,86</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>82,91</t>
+          <t>2,29</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-8,01</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-2,57</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
           <t>0,52</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-1,2</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>76,75</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-5,05</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-1,11</t>
-        </is>
-      </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-2,4</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>79,77</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-5,09</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,81</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-2,21</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,0; -0,2</t>
+          <t>-7,12; 3,18</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 1,65</t>
+          <t>-6,39; 3,03</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,52; -0,05</t>
+          <t>-6,37; 2,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>76,5; 87,84</t>
+          <t>-3,03; 7,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,59; -1,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 4,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 2,76</t>
+          <t>-13,28; -2,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>71,54; 80,8</t>
+          <t>-5,45; 4,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,3; -2,09</t>
+          <t>-7,81; 1,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-4,44; 1,98</t>
+          <t>-4,72; 6,21</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 0,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>75,73; 83,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-8,87; -1,66</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 2,79</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-5,78; 1,04</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 5,21</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-43,83%</t>
+          <t>-21,69%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-29,74%</t>
+          <t>-20,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-39,14%</t>
+          <t>-19,94%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>840,84%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-45,13%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-9,28%</t>
+          <t>-56,15%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>594,38%</t>
+          <t>0,15%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-44,49%</t>
+          <t>-18,01%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-9,79%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-21,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>702,25%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-45,31%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-7,17%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-19,67%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>11,18%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-71,21; -0,08</t>
+          <t>-65,95; 75,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-62,01; 26,38</t>
+          <t>-59,41; 61,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-65,95; 5,47</t>
+          <t>-56,05; 52,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>511,46; 1263,38</t>
+          <t>-29,41; 141,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-63,88; -17,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 43,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,82; 26,59</t>
+          <t>-75,32; -24,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>462,18; 799,28</t>
+          <t>-30,8; 45,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-61,64; -20,41</t>
+          <t>-42,76; 18,11</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-33,24; 20,32</t>
+          <t>-27,32; 55,4</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-41,62; 4,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>533,84; 902,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-65,5; -15,76</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-32,68; 31,49</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-41,03; 12,49</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-20,16; 59,51</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-3,65</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,22</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>84,68</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,81</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>-5,37</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>70,35</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-1,74</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>77,44</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-4,53</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-3,24</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 0,59</t>
+          <t>-6,86; -0,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 0,58</t>
+          <t>-6,31; 1,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 1,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>81,8; 87,01</t>
+          <t>-4,94; 2,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,39; -3,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 0,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 0,25</t>
+          <t>-8,98; -2,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>67,27; 72,85</t>
+          <t>-7,22; 0,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,89; -2,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-3,59; -0,07</t>
+          <t>-3,44; 5,5</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-3,44; -0,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>75,34; 79,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-7,05; -2,28</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-6,06; -0,41</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 2,72</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-28,74%</t>
+          <t>-43,49%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-19,98%</t>
+          <t>-31,36%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-15,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1062,02%</t>
+          <t>-10,81%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-38,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-13,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-14,97%</t>
+          <t>-37,49%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>468,93%</t>
+          <t>-25,04%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-35,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-15,96%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-15,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>669,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-39,98%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-28,56%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-3,5%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-52,38; 10,8</t>
+          <t>-67,77; -10,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-44,54; 10,89</t>
+          <t>-64,31; 20,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-39,73; 14,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>837,7; 1371,8</t>
+          <t>-50,45; 39,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-50,9; -23,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-28,77; 2,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-29,06; 1,75</t>
+          <t>-56,57; -16,75</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>403,51; 541,67</t>
+          <t>-47,4; 6,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,68; -20,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-28,39; -0,39</t>
+          <t>-22,68; 42,0</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-27,78; -0,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>586,5; 761,71</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-56,06; -20,98</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-49,03; -3,6</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-24,98; 27,13</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-2,36</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,55</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,24</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-5,93</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-2,05</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-1,92</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-4,19</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-1,82</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-1,6</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 0,6</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-4,23; 1,17</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-3,73; 1,16</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,96; 3,41</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-7,93; -3,14</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 0,56</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-4,17; 0,62</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 4,31</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-5,94; -2,26</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-3,75; -0,03</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 0,08</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-0,77; 3,11</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-29,63%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-19,47%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-15,55%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>14,46%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-39,39%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-13,59%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-12,79%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>9,14%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-36,14%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-15,67%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-13,78%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>10,91%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-52,32; 11,25</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-43,85; 18,71</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-39,19; 19,29</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-20,85; 51,73</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-49,61; -22,05</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-27,56; 3,96</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-25,63; 4,48</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-8,34; 30,44</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-47,91; -20,28</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-29,34; -0,12</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-26,57; 0,86</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-6,3; 28,72</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
